--- a/Health/HealthCare Facilities/NoOfBedsSG.xlsx
+++ b/Health/HealthCare Facilities/NoOfBedsSG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\HealthCare Facilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF72F2E-A010-4439-A0A8-B0A3A9A0425C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254A5D93-AA82-4E3B-B6A1-F09CFA770FEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>HealthCare Facilities</t>
   </si>
@@ -38,6 +38,45 @@
   </si>
   <si>
     <t>Inpatient Hospices</t>
+  </si>
+  <si>
+    <t>Year 2006</t>
+  </si>
+  <si>
+    <t>Year 2007</t>
+  </si>
+  <si>
+    <t>Year 2008</t>
+  </si>
+  <si>
+    <t>Year 2009</t>
+  </si>
+  <si>
+    <t>Year 2010</t>
+  </si>
+  <si>
+    <t>Year 2011</t>
+  </si>
+  <si>
+    <t>Year 2012</t>
+  </si>
+  <si>
+    <t>Year 2013</t>
+  </si>
+  <si>
+    <t>Year 2014</t>
+  </si>
+  <si>
+    <t>Year 2015</t>
+  </si>
+  <si>
+    <t>Year 2016</t>
+  </si>
+  <si>
+    <t>Year 2018</t>
+  </si>
+  <si>
+    <t>Year 2017</t>
   </si>
 </sst>
 </file>
@@ -882,7 +921,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,44 +933,44 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2018</v>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">

--- a/Health/HealthCare Facilities/NoOfBedsSG.xlsx
+++ b/Health/HealthCare Facilities/NoOfBedsSG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\HealthCare Facilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254A5D93-AA82-4E3B-B6A1-F09CFA770FEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219715CC-66B9-4F7D-8C0A-D6C758DA09A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>HealthCare Facilities</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="8">
   <si>
     <t>Acute Hospitals</t>
   </si>
@@ -40,43 +37,13 @@
     <t>Inpatient Hospices</t>
   </si>
   <si>
-    <t>Year 2006</t>
+    <t>Facilities Type</t>
   </si>
   <si>
-    <t>Year 2007</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year 2008</t>
-  </si>
-  <si>
-    <t>Year 2009</t>
-  </si>
-  <si>
-    <t>Year 2010</t>
-  </si>
-  <si>
-    <t>Year 2011</t>
-  </si>
-  <si>
-    <t>Year 2012</t>
-  </si>
-  <si>
-    <t>Year 2013</t>
-  </si>
-  <si>
-    <t>Year 2014</t>
-  </si>
-  <si>
-    <t>Year 2015</t>
-  </si>
-  <si>
-    <t>Year 2016</t>
-  </si>
-  <si>
-    <t>Year 2018</t>
-  </si>
-  <si>
-    <t>Year 2017</t>
+    <t>Number of Beds</t>
   </si>
 </sst>
 </file>
@@ -918,20 +885,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -939,257 +907,609 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2008</v>
+      </c>
+      <c r="C2">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>8187</v>
-      </c>
-      <c r="C2">
-        <v>8235</v>
-      </c>
-      <c r="D2">
-        <v>8190</v>
-      </c>
-      <c r="E2">
-        <v>8289</v>
-      </c>
-      <c r="F2">
-        <v>8249</v>
-      </c>
-      <c r="G2">
-        <v>8304</v>
-      </c>
-      <c r="H2">
-        <v>8725</v>
-      </c>
-      <c r="I2">
-        <v>8939</v>
-      </c>
-      <c r="J2">
-        <v>9262</v>
-      </c>
-      <c r="K2">
-        <v>9844</v>
-      </c>
-      <c r="L2">
-        <v>10318</v>
-      </c>
-      <c r="M2">
-        <v>10340</v>
-      </c>
-      <c r="N2">
-        <v>10826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2113</v>
+        <v>2008</v>
       </c>
       <c r="C3">
         <v>2064</v>
       </c>
-      <c r="D3">
-        <v>2064</v>
-      </c>
-      <c r="E3">
-        <v>2040</v>
-      </c>
-      <c r="F3">
-        <v>2010</v>
-      </c>
-      <c r="G3">
-        <v>2010</v>
-      </c>
-      <c r="H3">
-        <v>2010</v>
-      </c>
-      <c r="I3">
-        <v>2010</v>
-      </c>
-      <c r="J3">
-        <v>1950</v>
-      </c>
-      <c r="K3">
-        <v>1950</v>
-      </c>
-      <c r="L3">
-        <v>1950</v>
-      </c>
-      <c r="M3">
-        <v>1950</v>
-      </c>
-      <c r="N3">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>771</v>
-      </c>
-      <c r="C4">
-        <v>749</v>
-      </c>
-      <c r="D4">
-        <v>872</v>
-      </c>
-      <c r="E4">
-        <v>877</v>
-      </c>
-      <c r="F4">
-        <v>842</v>
-      </c>
-      <c r="G4">
-        <v>800</v>
-      </c>
-      <c r="H4">
-        <v>842</v>
-      </c>
-      <c r="I4">
-        <v>852</v>
-      </c>
-      <c r="J4">
-        <v>1065</v>
-      </c>
-      <c r="K4">
-        <v>1464</v>
-      </c>
-      <c r="L4">
-        <v>1663</v>
-      </c>
-      <c r="M4">
-        <v>1663</v>
-      </c>
-      <c r="N4">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2008</v>
+      </c>
+      <c r="C5">
+        <v>9806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>9456</v>
-      </c>
-      <c r="C5">
-        <v>9626</v>
-      </c>
-      <c r="D5">
-        <v>9806</v>
-      </c>
-      <c r="E5">
-        <v>9442</v>
-      </c>
-      <c r="F5">
-        <v>9551</v>
-      </c>
-      <c r="G5">
-        <v>9690</v>
-      </c>
-      <c r="H5">
-        <v>9721</v>
-      </c>
-      <c r="I5">
-        <v>10838</v>
-      </c>
-      <c r="J5">
-        <v>10968</v>
-      </c>
-      <c r="K5">
-        <v>12185</v>
-      </c>
-      <c r="L5">
-        <v>13022</v>
-      </c>
-      <c r="M5">
-        <v>14918</v>
-      </c>
-      <c r="N5">
-        <v>15205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6">
-        <v>129</v>
+        <v>2008</v>
       </c>
       <c r="C6">
         <v>129</v>
       </c>
-      <c r="D6">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2009</v>
+      </c>
+      <c r="C7">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2009</v>
+      </c>
+      <c r="C8">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2009</v>
+      </c>
+      <c r="C9">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2009</v>
+      </c>
+      <c r="C10">
+        <v>9442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2009</v>
+      </c>
+      <c r="C11">
         <v>129</v>
       </c>
-      <c r="E6">
-        <v>129</v>
-      </c>
-      <c r="F6">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2010</v>
+      </c>
+      <c r="C12">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2010</v>
+      </c>
+      <c r="C15">
+        <v>9551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2010</v>
+      </c>
+      <c r="C16">
         <v>123</v>
       </c>
-      <c r="G6">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2011</v>
+      </c>
+      <c r="C17">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2011</v>
+      </c>
+      <c r="C18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2011</v>
+      </c>
+      <c r="C19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20">
+        <v>9690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21">
         <v>133</v>
       </c>
-      <c r="H6">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2012</v>
+      </c>
+      <c r="C22">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2012</v>
+      </c>
+      <c r="C24">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2012</v>
+      </c>
+      <c r="C25">
+        <v>9721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2012</v>
+      </c>
+      <c r="C26">
         <v>149</v>
       </c>
-      <c r="I6">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>2013</v>
+      </c>
+      <c r="C27">
+        <v>8939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2013</v>
+      </c>
+      <c r="C28">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2013</v>
+      </c>
+      <c r="C29">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2013</v>
+      </c>
+      <c r="C30">
+        <v>10838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2013</v>
+      </c>
+      <c r="C31">
         <v>149</v>
       </c>
-      <c r="J6">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>2014</v>
+      </c>
+      <c r="C32">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2014</v>
+      </c>
+      <c r="C33">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>2014</v>
+      </c>
+      <c r="C34">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35">
+        <v>10968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2014</v>
+      </c>
+      <c r="C36">
         <v>141</v>
       </c>
-      <c r="K6">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>2015</v>
+      </c>
+      <c r="C37">
+        <v>9844</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2015</v>
+      </c>
+      <c r="C38">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>2015</v>
+      </c>
+      <c r="C39">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>2015</v>
+      </c>
+      <c r="C40">
+        <v>12185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>2015</v>
+      </c>
+      <c r="C41">
         <v>141</v>
       </c>
-      <c r="L6">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2016</v>
+      </c>
+      <c r="C42">
+        <v>10318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2016</v>
+      </c>
+      <c r="C43">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>2016</v>
+      </c>
+      <c r="C44">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>2016</v>
+      </c>
+      <c r="C45">
+        <v>13022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>2016</v>
+      </c>
+      <c r="C46">
         <v>173</v>
       </c>
-      <c r="M6">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2017</v>
+      </c>
+      <c r="C47">
+        <v>10340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>2017</v>
+      </c>
+      <c r="C48">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>2017</v>
+      </c>
+      <c r="C49">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>2017</v>
+      </c>
+      <c r="C50">
+        <v>14918</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>2017</v>
+      </c>
+      <c r="C51">
         <v>179</v>
       </c>
-      <c r="N6">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>2018</v>
+      </c>
+      <c r="C52">
+        <v>10826</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>2018</v>
+      </c>
+      <c r="C53">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>2018</v>
+      </c>
+      <c r="C54">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>2018</v>
+      </c>
+      <c r="C55">
+        <v>15205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>2018</v>
+      </c>
+      <c r="C56">
         <v>179</v>
       </c>
     </row>
